--- a/Horas excel..xlsx
+++ b/Horas excel..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de5549b7ccc674a9/01. SEMESTERS/2021 - Semestre I/Lenguajes y Compiladores/Compiladores/2021_COMPILADORES_ANIMATION_LED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\compi\2021_COMPILADORES_ANIMATION_LED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{774A6597-600F-45EE-9E0E-0C75E26FF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D11282-9ACF-4474-A292-2E384FC8701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{45697738-4674-46AC-BDB7-2AB9338985D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{45697738-4674-46AC-BDB7-2AB9338985D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Búsqueda de potenciales tokens y creación de tabla de símbolos. </t>
   </si>
@@ -79,9 +79,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>24/05/2021</t>
-  </si>
-  <si>
     <t>27/05/2021</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
 Shakime Richards </t>
   </si>
   <si>
-    <t>30/05/2021</t>
-  </si>
-  <si>
     <t>Definición del análisis léxico.</t>
   </si>
   <si>
@@ -228,6 +222,36 @@
   </si>
   <si>
     <t>Implementación de las validaciones en las funciones del PRINTLEDX.</t>
+  </si>
+  <si>
+    <t>Optimización del controlador de leds en Arduino y ajustes del ciclo de animación</t>
+  </si>
+  <si>
+    <t>Reestructuración del envío y almacenamiento de instrucciones en el controlador de Arduino.</t>
+  </si>
+  <si>
+    <t>Realización de pruebas de leds con matrices de python.</t>
+  </si>
+  <si>
+    <t>Implementación de primeras animaciones leds con instrucciones de prueba.</t>
+  </si>
+  <si>
+    <t>Definición de las funciones necesarias para el display de los leds mediante la estructura de matriz.</t>
+  </si>
+  <si>
+    <t>Definición de las funciones necesarias para la comunicación Python-Arduino.</t>
+  </si>
+  <si>
+    <t>Investigación sobre el uso de PySerial junto a Arduino.</t>
+  </si>
+  <si>
+    <t>Armado del circuito.</t>
+  </si>
+  <si>
+    <t>Investigación de matriz de leds en Arduino.</t>
+  </si>
+  <si>
+    <t>Pruebas y ajuste del tiempo de delay en la animación mostrada.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -335,11 +359,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,13 +404,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +433,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,24 +772,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B992A191-80A0-452F-B524-116CD73A2B5B}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -740,21 +803,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -762,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -782,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -793,12 +856,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44340</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -807,465 +870,597 @@
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>44341</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44342</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>0.5</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>44202</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44346</v>
       </c>
       <c r="B13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>0.5</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>44348</v>
+      </c>
       <c r="B15" s="4">
         <v>0.5</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
       <c r="B16" s="4">
         <v>0.5</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
       <c r="B17" s="4">
         <v>0.5</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>44233</v>
-      </c>
-      <c r="B18" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>44349</v>
+      </c>
+      <c r="B20" s="6">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>44322</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44350</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44352</v>
+      </c>
+      <c r="B23" s="4">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>44353</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10"/>
       <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
       <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
       <c r="B25" s="4">
-        <v>2</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>44353</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>44383</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4">
-        <v>2</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>44414</v>
-      </c>
+    <row r="30" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
       <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>44475</v>
-      </c>
+    <row r="31" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
       <c r="B31" s="4">
-        <v>2</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="23"/>
       <c r="D31" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>44354</v>
+      </c>
       <c r="B32" s="4">
         <v>2</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
       <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>44506</v>
+      <c r="C34" s="17"/>
+      <c r="D34" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>44355</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>44356</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10">
+        <v>4</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>44357</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>44358</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="4">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D42" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D43" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="10">
+        <v>3</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44359</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>44536</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2</v>
-      </c>
-      <c r="C37" s="14" t="s">
+    <row r="46" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>44360</v>
+      </c>
+      <c r="B47" s="10">
         <v>6</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="C47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="4">
+    <row r="49" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44363</v>
+      </c>
+      <c r="B49" s="10">
         <v>3</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="C49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="B50" s="4">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="B51" s="4">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="4">
-        <v>9</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B52" s="4">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="4">
-        <v>4</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="4">
-        <v>4</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="20">
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
